--- a/Test/Epsilon/MSE1000001.xlsx
+++ b/Test/Epsilon/MSE1000001.xlsx
@@ -432,31 +432,31 @@
         <v>0.1333708172878887</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1219642131983158</v>
+        <v>0.1244531654592116</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1080186512241773</v>
+        <v>0.117764900232468</v>
       </c>
       <c r="F1" t="n">
-        <v>0.08741661735882726</v>
+        <v>0.1098362746661834</v>
       </c>
       <c r="G1" t="n">
-        <v>0.08626191319362476</v>
+        <v>0.105870135522624</v>
       </c>
       <c r="H1" t="n">
-        <v>0.08387056749485497</v>
+        <v>0.1034801829365901</v>
       </c>
       <c r="I1" t="n">
-        <v>0.07822938475738341</v>
+        <v>0.1027376568039543</v>
       </c>
       <c r="J1" t="n">
-        <v>0.07370960573725642</v>
+        <v>0.1017685450415135</v>
       </c>
       <c r="K1" t="n">
-        <v>0.07207062531400542</v>
+        <v>0.1010646862701071</v>
       </c>
       <c r="L1" t="n">
-        <v>0.07178233516328476</v>
+        <v>0.1003946436359851</v>
       </c>
     </row>
   </sheetData>
